--- a/biology/Biologie cellulaire et moléculaire/Spermatogenèse/Spermatogenèse.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Spermatogenèse/Spermatogenèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spermatogen%C3%A8se</t>
+          <t>Spermatogenèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La spermatogenèse désigne le processus de développement des spermatozoïdes, qui sont les gamètes mâles matures de nombreux organismes à reproduction sexuée. Il s'agit donc de la version masculine de la gamétogenèse, dont l'équivalent féminin est l'ovogenèse. C'est un processus complexe de différenciation, impliquant la prolifération et le renouvellement des cellules germinales, la méiose et la spermiogenèse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La spermatogenèse désigne le processus de développement des spermatozoïdes, qui sont les gamètes mâles matures de nombreux organismes à reproduction sexuée. Il s'agit donc de la version masculine de la gamétogenèse, dont l'équivalent féminin est l'ovogenèse. C'est un processus complexe de différenciation, impliquant la prolifération et le renouvellement des cellules germinales, la méiose et la spermiogenèse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spermatogen%C3%A8se</t>
+          <t>Spermatogenèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Mammifères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chez les mammifères, la spermatogenèse se produit dans les tubes séminifères des testicules sous l'influence des cellules de Sertoli[1].
-Humains</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les mammifères, la spermatogenèse se produit dans les tubes séminifères des testicules sous l'influence des cellules de Sertoli.
+</t>
         </is>
       </c>
     </row>
